--- a/biology/Botanique/Disa_cernua/Disa_cernua.xlsx
+++ b/biology/Botanique/Disa_cernua/Disa_cernua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disa cernua est une espèce de la famille des Orchidaceae.C'est une espèce que l’on trouve en Afrique du Sud, dans les provinces du Cap-Oriental et du Cap-Occidental[1],[2].  C’est un géophyte tubéreux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disa cernua est une espèce de la famille des Orchidaceae.C'est une espèce que l’on trouve en Afrique du Sud, dans les provinces du Cap-Oriental et du Cap-Occidental,.  C’est un géophyte tubéreux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ayant besoin du feu pour fleurir et pousser dans des endroits marécageux, il est connu dans neuf localités et est répertorié comme vulnérable en raison de la perte d’habitat et de l’invasion de plantes exotiques. Des populations saines n’existent que dans trois localités, dont une seule, Cape Point, est officiellement protégée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant besoin du feu pour fleurir et pousser dans des endroits marécageux, il est connu dans neuf localités et est répertorié comme vulnérable en raison de la perte d’habitat et de l’invasion de plantes exotiques. Des populations saines n’existent que dans trois localités, dont une seule, Cape Point, est officiellement protégée.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Disa cernua (Thunb.) Sw.[4].
-L'espèce a été initialement classée dans le genre Satyrium sous le basionyme Satyrium cernuum Thunb.[4].
-Disa cernua a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Disa cernua (Thunb.) Sw..
+L'espèce a été initialement classée dans le genre Satyrium sous le basionyme Satyrium cernuum Thunb..
+Disa cernua a pour synonymes :
 Disa physodes Thunb.
 Disa prasinata Ker Gawl.
 Disa prasinata KerGawl.
